--- a/Tema 4 /Metodo del trapecio/Regla del trapecio en excel.xlsx
+++ b/Tema 4 /Metodo del trapecio/Regla del trapecio en excel.xlsx
@@ -439,7 +439,7 @@
     <xdr:ext cx="3324225" cy="476250"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -467,7 +467,7 @@
     <xdr:ext cx="3676650" cy="2552700"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Imagen"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
